--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H2">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N2">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q2">
-        <v>0.2401468146023333</v>
+        <v>0.3051371613434445</v>
       </c>
       <c r="R2">
-        <v>2.161321331421</v>
+        <v>2.746234452091</v>
       </c>
       <c r="S2">
-        <v>0.1082739457814095</v>
+        <v>0.1956276668315932</v>
       </c>
       <c r="T2">
-        <v>0.1082739457814095</v>
+        <v>0.1956276668315932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H3">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q3">
-        <v>0.483885415202</v>
+        <v>0.3302354164286667</v>
       </c>
       <c r="R3">
-        <v>4.354968736818</v>
+        <v>2.972118747858</v>
       </c>
       <c r="S3">
-        <v>0.2181673044331403</v>
+        <v>0.2117185063158731</v>
       </c>
       <c r="T3">
-        <v>0.2181673044331403</v>
+        <v>0.2117185063158731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H4">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N4">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q4">
-        <v>0.173734666126</v>
+        <v>0.1681587470044444</v>
       </c>
       <c r="R4">
-        <v>1.563611995134</v>
+        <v>1.51342872304</v>
       </c>
       <c r="S4">
-        <v>0.07833099036365496</v>
+        <v>0.1078089053098887</v>
       </c>
       <c r="T4">
-        <v>0.07833099036365496</v>
+        <v>0.1078089053098887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H5">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N5">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q5">
-        <v>0.6639592282143334</v>
+        <v>0.3473996647867778</v>
       </c>
       <c r="R5">
-        <v>5.975633053929001</v>
+        <v>3.126596983081</v>
       </c>
       <c r="S5">
-        <v>0.2993563982757351</v>
+        <v>0.2227227440312392</v>
       </c>
       <c r="T5">
-        <v>0.2993563982757352</v>
+        <v>0.2227227440312392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H6">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N6">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q6">
-        <v>0.1009085002236667</v>
+        <v>0.1083962882923333</v>
       </c>
       <c r="R6">
-        <v>0.908176502013</v>
+        <v>0.975566594631</v>
       </c>
       <c r="S6">
-        <v>0.04549617491363751</v>
+        <v>0.06949436403770715</v>
       </c>
       <c r="T6">
-        <v>0.04549617491363751</v>
+        <v>0.06949436403770716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H7">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q7">
-        <v>0.203326251106</v>
+        <v>0.117312140042</v>
       </c>
       <c r="R7">
-        <v>1.829936259954</v>
+        <v>1.055809260378</v>
       </c>
       <c r="S7">
-        <v>0.09167281908212491</v>
+        <v>0.07521044027019366</v>
       </c>
       <c r="T7">
-        <v>0.09167281908212491</v>
+        <v>0.07521044027019368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H8">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N8">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q8">
-        <v>0.07300244487799999</v>
+        <v>0.05973636229333333</v>
       </c>
       <c r="R8">
-        <v>0.6570220039019999</v>
+        <v>0.53762726064</v>
       </c>
       <c r="S8">
-        <v>0.03291429358211486</v>
+        <v>0.03829781049610797</v>
       </c>
       <c r="T8">
-        <v>0.03291429358211486</v>
+        <v>0.03829781049610797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H9">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N9">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q9">
-        <v>0.2789923740596666</v>
+        <v>0.1234095318023333</v>
       </c>
       <c r="R9">
-        <v>2.510931366537</v>
+        <v>1.110685786221</v>
       </c>
       <c r="S9">
-        <v>0.1257880735681828</v>
+        <v>0.07911956270739699</v>
       </c>
       <c r="T9">
-        <v>0.1257880735681829</v>
+        <v>0.07911956270739699</v>
       </c>
     </row>
   </sheetData>
